--- a/medicine/Enfance/Singeon/Singeon.xlsx
+++ b/medicine/Enfance/Singeon/Singeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Singeon est un illustrateur et auteur de bande dessinée français né à Fort-de-France le 8 avril 1982.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Singeon est diplômé de l'École nationale supérieure des beaux-arts de Paris.
 Entre 2010 et 2012, il participe au feuilleton en ligne Les Autres Gens scénarisé par Thomas Cadène, dont il illustre onze épisodes.
-En 2015, il est en résidence d'artiste à Montréal au Québec, où il réalise, entre autres, le feuilleton en ligne de bande dessinée De concert[1].
+En 2015, il est en résidence d'artiste à Montréal au Québec, où il réalise, entre autres, le feuilleton en ligne de bande dessinée De concert.
 </t>
         </is>
       </c>
@@ -546,27 +560,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Burt et Pénélope, Éd. Danger Public, 2006  (ISBN 2-351-23128-7)
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Burt et Pénélope, Éd. Danger Public, 2006  (ISBN 2-351-23128-7)
 Sauvetages, Éd Cornélius, 2011  (ISBN 9782360810055)
 Suite Kimono, Éd. Ion, 2013  (ISBN 978-2919347124)
-De concert[2],[3], avec Sophie Bédard, Jimmy Beaulieu et Vincent Giard, Éd. La mauvaise tête, 2018  (ISBN 9782923942193).
-Illustrateur
-Bienvenue (série)[4], scénario de Marguerite Abouet.
+De concert avec Sophie Bédard, Jimmy Beaulieu et Vincent Giard, Éd. La mauvaise tête, 2018  (ISBN 9782923942193).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Singeon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Singeon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bienvenue (série), scénario de Marguerite Abouet.
 Éd. Gallimard, 2010  (ISBN 978-2070626410).
 Éd. Gallimard, 2012  (ISBN 978-2070645978).
 Éd. Gallimard, 2014  (ISBN 978-2070653348).
-Brousse (série)[5], avec Vincent Giard.
+Brousse (série), avec Vincent Giard.
 Éd. Colosse, 2012  (ISBN 9782924001233).
 Éd. Colosse, 2014  (ISBN 9782924001400).
 La part de l'orage, avec Grégory Nicolas, Éd. Rue des promenades 2013  (ISBN 978-2918804208).
 Tristan et Yseult, scénario de Agnès Maupré, Éd. Gallimard, 2017.
-Vacances au bled[6], Jennifer Bidet, Casterman, 2018.
-Sorcières! disent-ils, scénario de Juliette Ihler, Ed. Delcourt, collection Octopus, 2021  (ISBN 9782413028246)
-Coloriste
-Abigail - Une aventure d'Edward le Héros Super, scénario et dessin d'Aseyn), Éd. Vraoum !, 2010.
-Ouvrages collectifs
-Les Autres gens, Éd. Dupuis.
+Vacances au bled, Jennifer Bidet, Casterman, 2018.
+Sorcières! disent-ils, scénario de Juliette Ihler, Ed. Delcourt, collection Octopus, 2021  (ISBN 9782413028246)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Singeon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Singeon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coloriste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abigail - Une aventure d'Edward le Héros Super, scénario et dessin d'Aseyn), Éd. Vraoum !, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Singeon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Singeon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Autres gens, Éd. Dupuis.
 #01 - avril 2011  (ISBN 978-2-8001-5146-5).
 #05 - mars 2012  (ISBN 978-2-8001-5150-2).
 #06/#07 - juin 2012  (ISBN 978-2-8001-5151-9).
@@ -575,10 +696,44 @@
 #12/#13 - août 2013  (ISBN 978-2-8001-5689-7).
 #14/#15 - mars 2014  (ISBN 978-2-8001-5759-7).
 #16/#17/#18 - septembre 2014  (ISBN 978-2-8001-5842-6).
-ABCD de la typographie [7],[8],[9], conception de Jean-Christophe Menu, direction d'ouvrage et scénario de David Rault, dessin : collectif (Singeon, Seyhan Argun, Aseyn, François Ayroles, Hervé Bourhis, Alexandre Clérisse, Olivier Deloye, Libon, Delphine Panique, Jake Raynal, Anne Simon), Gallimard, 2018  (ISBN 978-2-07-510270-4)
-Feuilletons en ligne
-Les Autres Gens, feuilleton collectif de bande dessinée, 2010-2012.
-De concert, avec Sophie Bédard, Jimmy Beaulieu et Vincent Giard, feuilleton collectif de bande dessinée, 2015[1],[10].</t>
+ABCD de la typographie  conception de Jean-Christophe Menu, direction d'ouvrage et scénario de David Rault, dessin : collectif (Singeon, Seyhan Argun, Aseyn, François Ayroles, Hervé Bourhis, Alexandre Clérisse, Olivier Deloye, Libon, Delphine Panique, Jake Raynal, Anne Simon), Gallimard, 2018  (ISBN 978-2-07-510270-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Singeon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Singeon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Feuilletons en ligne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Autres Gens, feuilleton collectif de bande dessinée, 2010-2012.
+De concert, avec Sophie Bédard, Jimmy Beaulieu et Vincent Giard, feuilleton collectif de bande dessinée, 2015,.</t>
         </is>
       </c>
     </row>
